--- a/项目风险管理.xlsx
+++ b/项目风险管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58279CEC-A35E-400B-8A35-91B193CF0AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BDC712-572D-403B-8665-F9A9CDC822A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" tabRatio="999" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>• 项目管理计划
 • 项目文件
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t>项目文件（更新）</t>
-  </si>
-  <si>
-    <t>• 项目管理计划
-• 项目文件
-♦ 事业环境因素
-• 组织过程资产</t>
   </si>
   <si>
     <t>• 专家判断
@@ -615,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41053E2F-150F-490B-A403-84AFB5A2ECC2}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -646,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85.5" x14ac:dyDescent="0.3">
@@ -660,13 +654,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
@@ -674,10 +668,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
